--- a/src/main/resources/CBSDfiles/patient/Parkinson-BADN exemple.xlsx
+++ b/src/main/resources/CBSDfiles/patient/Parkinson-BADN exemple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
   <si>
     <t>Nom</t>
   </si>
@@ -132,7 +132,19 @@
     <t>BYG</t>
   </si>
   <si>
-    <t>05/05/0940</t>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ANDRE</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>Jean</t>
   </si>
 </sst>
 </file>
@@ -607,7 +619,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,11 +704,17 @@
       <c r="AC1" s="13"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>38</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="15">
+        <v>14736</v>
       </c>
       <c r="E2" s="16">
         <v>4</v>
@@ -737,7 +755,7 @@
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>29</v>
@@ -753,9 +771,13 @@
       <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="21" t="s">
+        <v>41</v>
+      </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="C3" s="21" t="s">
+        <v>42</v>
+      </c>
       <c r="D3" s="22">
         <v>18388</v>
       </c>
@@ -878,8 +900,8 @@
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>38</v>
+      <c r="D5" s="15">
+        <v>14736</v>
       </c>
       <c r="E5" s="16">
         <v>4</v>
@@ -1061,8 +1083,8 @@
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="15" t="s">
-        <v>38</v>
+      <c r="D8" s="15">
+        <v>14736</v>
       </c>
       <c r="E8" s="23">
         <v>4</v>
@@ -1244,8 +1266,8 @@
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="15" t="s">
-        <v>38</v>
+      <c r="D11" s="15">
+        <v>14736</v>
       </c>
       <c r="E11" s="16">
         <v>4</v>
@@ -1427,8 +1449,8 @@
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="15" t="s">
-        <v>38</v>
+      <c r="D14" s="15">
+        <v>14736</v>
       </c>
       <c r="E14" s="16">
         <v>4</v>
@@ -1610,8 +1632,8 @@
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
-      <c r="D17" s="15" t="s">
-        <v>38</v>
+      <c r="D17" s="15">
+        <v>14736</v>
       </c>
       <c r="E17" s="16">
         <v>4</v>

--- a/src/main/resources/CBSDfiles/patient/Parkinson-BADN exemple.xlsx
+++ b/src/main/resources/CBSDfiles/patient/Parkinson-BADN exemple.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="73">
   <si>
     <t>Nom</t>
   </si>
@@ -132,19 +132,109 @@
     <t>BYG</t>
   </si>
   <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
     <t>ANDRE</t>
   </si>
   <si>
-    <t>Marie</t>
-  </si>
-  <si>
-    <t>BERNARD</t>
-  </si>
-  <si>
-    <t>Jean</t>
+    <t>PERRIN</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>CLEMENT</t>
+  </si>
+  <si>
+    <t>MORIN</t>
+  </si>
+  <si>
+    <t>NICOLAS</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>ROUSSEL</t>
+  </si>
+  <si>
+    <t>MATHIEU</t>
+  </si>
+  <si>
+    <t>GAUTIER</t>
+  </si>
+  <si>
+    <t>MASSON</t>
+  </si>
+  <si>
+    <t>MARCHAND</t>
+  </si>
+  <si>
+    <t>DUVAL</t>
+  </si>
+  <si>
+    <t>DENIS</t>
+  </si>
+  <si>
+    <t>DUMONT</t>
+  </si>
+  <si>
+    <t>MARIE</t>
+  </si>
+  <si>
+    <t>LEMAIRE</t>
+  </si>
+  <si>
+    <t>NOEL</t>
+  </si>
+  <si>
+    <t>François</t>
+  </si>
+  <si>
+    <t>Valérie</t>
+  </si>
+  <si>
+    <t>Sandrine</t>
+  </si>
+  <si>
+    <t>Stéphanie</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Véronique</t>
+  </si>
+  <si>
+    <t>Céline</t>
+  </si>
+  <si>
+    <t>Chantal</t>
+  </si>
+  <si>
+    <t>Christiane</t>
+  </si>
+  <si>
+    <t>Didier</t>
+  </si>
+  <si>
+    <t>René</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Patricia</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Bruno</t>
   </si>
 </sst>
 </file>
@@ -154,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,6 +274,12 @@
       <sz val="10"/>
       <color indexed="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -225,8 +321,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -316,8 +415,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Pourcentage 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,7 +721,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,14 +806,14 @@
       <c r="AC1" s="13"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>40</v>
+      <c r="C2" s="15" t="s">
+        <v>56</v>
       </c>
       <c r="D2" s="15">
         <v>14736</v>
@@ -754,8 +856,8 @@
         <v>27</v>
       </c>
       <c r="T2" s="19"/>
-      <c r="U2" s="18" t="s">
-        <v>30</v>
+      <c r="U2" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="V2" s="15" t="s">
         <v>29</v>
@@ -771,12 +873,12 @@
       <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21" t="s">
-        <v>42</v>
+      <c r="A3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="22">
         <v>18388</v>
@@ -819,8 +921,8 @@
         <v>27</v>
       </c>
       <c r="T3" s="26"/>
-      <c r="U3" s="25" t="s">
-        <v>28</v>
+      <c r="U3" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V3" s="22" t="s">
         <v>29</v>
@@ -836,9 +938,13 @@
       <c r="AC3" s="21"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="D4" s="15">
         <v>22041</v>
       </c>
@@ -880,8 +986,8 @@
         <v>27</v>
       </c>
       <c r="T4" s="19"/>
-      <c r="U4" s="18" t="s">
-        <v>28</v>
+      <c r="U4" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V4" s="15" t="s">
         <v>29</v>
@@ -897,9 +1003,13 @@
       <c r="AC4" s="14"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15" t="s">
+        <v>59</v>
+      </c>
       <c r="D5" s="15">
         <v>14736</v>
       </c>
@@ -941,8 +1051,8 @@
         <v>27</v>
       </c>
       <c r="T5" s="19"/>
-      <c r="U5" s="18" t="s">
-        <v>28</v>
+      <c r="U5" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V5" s="15" t="s">
         <v>29</v>
@@ -958,9 +1068,13 @@
       <c r="AC5" s="14"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="D6" s="22">
         <v>18388</v>
       </c>
@@ -1002,7 +1116,7 @@
         <v>27</v>
       </c>
       <c r="T6" s="19"/>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="15" t="s">
         <v>30</v>
       </c>
       <c r="V6" s="15" t="s">
@@ -1019,9 +1133,13 @@
       <c r="AC6" s="14"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="D7" s="15">
         <v>22041</v>
       </c>
@@ -1063,8 +1181,8 @@
         <v>27</v>
       </c>
       <c r="T7" s="19"/>
-      <c r="U7" s="18" t="s">
-        <v>28</v>
+      <c r="U7" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V7" s="15" t="s">
         <v>29</v>
@@ -1080,9 +1198,13 @@
       <c r="AC7" s="14"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="D8" s="15">
         <v>14736</v>
       </c>
@@ -1124,8 +1246,8 @@
         <v>27</v>
       </c>
       <c r="T8" s="26"/>
-      <c r="U8" s="25" t="s">
-        <v>28</v>
+      <c r="U8" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V8" s="22" t="s">
         <v>29</v>
@@ -1141,9 +1263,13 @@
       <c r="AC8" s="21"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="D9" s="22">
         <v>18388</v>
       </c>
@@ -1185,8 +1311,8 @@
         <v>27</v>
       </c>
       <c r="T9" s="19"/>
-      <c r="U9" s="18" t="s">
-        <v>28</v>
+      <c r="U9" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V9" s="15" t="s">
         <v>29</v>
@@ -1202,9 +1328,13 @@
       <c r="AC9" s="14"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="D10" s="15">
         <v>22041</v>
       </c>
@@ -1246,8 +1376,8 @@
         <v>27</v>
       </c>
       <c r="T10" s="19"/>
-      <c r="U10" s="18" t="s">
-        <v>28</v>
+      <c r="U10" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V10" s="15" t="s">
         <v>29</v>
@@ -1263,9 +1393,13 @@
       <c r="AC10" s="14"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="D11" s="15">
         <v>14736</v>
       </c>
@@ -1307,7 +1441,7 @@
         <v>27</v>
       </c>
       <c r="T11" s="19"/>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="15" t="s">
         <v>28</v>
       </c>
       <c r="V11" s="15" t="s">
@@ -1324,9 +1458,13 @@
       <c r="AC11" s="14"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="22">
         <v>18388</v>
       </c>
@@ -1368,8 +1506,8 @@
         <v>27</v>
       </c>
       <c r="T12" s="19"/>
-      <c r="U12" s="18" t="s">
-        <v>30</v>
+      <c r="U12" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="V12" s="15" t="s">
         <v>32</v>
@@ -1385,9 +1523,13 @@
       <c r="AC12" s="14"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>67</v>
+      </c>
       <c r="D13" s="15">
         <v>22041</v>
       </c>
@@ -1429,8 +1571,8 @@
         <v>27</v>
       </c>
       <c r="T13" s="19"/>
-      <c r="U13" s="18" t="s">
-        <v>30</v>
+      <c r="U13" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="V13" s="15" t="s">
         <v>29</v>
@@ -1446,9 +1588,13 @@
       <c r="AC13" s="14"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>68</v>
+      </c>
       <c r="D14" s="15">
         <v>14736</v>
       </c>
@@ -1490,7 +1636,7 @@
         <v>27</v>
       </c>
       <c r="T14" s="19"/>
-      <c r="U14" s="18" t="s">
+      <c r="U14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="V14" s="15" t="s">
@@ -1507,9 +1653,13 @@
       <c r="AC14" s="14"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" s="22">
         <v>18388</v>
       </c>
@@ -1551,7 +1701,7 @@
         <v>27</v>
       </c>
       <c r="T15" s="19"/>
-      <c r="U15" s="18" t="s">
+      <c r="U15" s="15" t="s">
         <v>30</v>
       </c>
       <c r="V15" s="15" t="s">
@@ -1568,9 +1718,13 @@
       <c r="AC15" s="14"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="15">
         <v>22041</v>
       </c>
@@ -1612,8 +1766,8 @@
         <v>27</v>
       </c>
       <c r="T16" s="19"/>
-      <c r="U16" s="18" t="s">
-        <v>30</v>
+      <c r="U16" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="V16" s="15" t="s">
         <v>29</v>
@@ -1629,9 +1783,13 @@
       <c r="AC16" s="14"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="D17" s="15">
         <v>14736</v>
       </c>
@@ -1673,8 +1831,8 @@
         <v>27</v>
       </c>
       <c r="T17" s="19"/>
-      <c r="U17" s="18" t="s">
-        <v>28</v>
+      <c r="U17" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="V17" s="15" t="s">
         <v>29</v>
@@ -1690,9 +1848,13 @@
       <c r="AC17" s="14"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D18" s="22">
         <v>18388</v>
       </c>
@@ -1738,8 +1900,8 @@
         <v>27</v>
       </c>
       <c r="T18" s="19"/>
-      <c r="U18" s="18" t="s">
-        <v>30</v>
+      <c r="U18" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="V18" s="15" t="s">
         <v>29</v>
